--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -511,12 +511,12 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>match_cate_4</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>match_cate_translation</t>
         </is>
       </c>
     </row>
@@ -577,26 +577,26 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Home Appliances</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Small Kitchen Appliances</t>
+          <t>厨房小电</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Electric Pressure Cooker</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Electric Pressure Cooker</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.6475794911384583</v>
+          <t>榨汁机/料理机</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4521675705909729</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Small Kitchen Appliances ||| Juicer/food processor</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -656,26 +656,26 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Stationery Office Supplies</t>
+          <t>二手商品</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>School Educational Supplies</t>
+          <t>二手书</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Early Childhood Education Materials</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Early Childhood Education Materials</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.5842172503471375</v>
+          <t>二手工业图书</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>0.3301894664764404</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Second-hand Items ||| Second-hand Books ||| Second-hand Industrial Books</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -735,26 +735,26 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Personal Care</t>
+          <t>个人护理</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Personal Care Consumables</t>
+          <t>女性护理</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Other Personal Care Consumables</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Other Personal Care Consumables</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.7166494727134705</v>
+          <t>裤型卫生巾</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>0.405473381280899</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Personal Care ||| Female Care ||| Panty Liner</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -814,26 +814,26 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Home Appliances</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Large Kitchen Appliances</t>
+          <t>商用电器</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Large Kitchen Appliances Accessories</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Large Kitchen Appliances Accessories</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.7620514631271362</v>
+          <t>蒸柜</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5540269613265991</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Commercial Appliances ||| Steam cabinet</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -893,26 +893,26 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Home Appliances</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Large Kitchen Appliances</t>
+          <t>商用电器</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Large Kitchen Appliances Accessories</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Large Kitchen Appliances Accessories</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.7363290786743164</v>
+          <t>蒸柜</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5109903812408447</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Commercial Appliances ||| Steam cabinet</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -972,26 +972,26 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Home Appliances</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Small Kitchen Appliances</t>
+          <t>厨房小电</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Other Small Kitchen Appliances</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Other Small Kitchen Appliances</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.7385797500610352</v>
+          <t>榨汁机/料理机</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5742111206054688</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Small Kitchen Appliances ||| Juicer/food processor</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1051,26 +1051,26 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Stationery Office Supplies</t>
+          <t>文教文化用品</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Calendars, Planners Personal Organisers</t>
+          <t>本册纸签</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Wall Calendars</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Wall Calendars</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.5715574026107788</v>
+          <t>笔记本/记事本</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0.307413786649704</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Stationery &amp; Cultural Products ||| This booklet paper tag ||| Notebook/Notepad</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1130,26 +1130,26 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>厨具</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Furniture Accessories</t>
+          <t>烹饪锅具</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Accessories</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Accessories</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.6047358512878418</v>
+          <t>水壶</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4361652135848999</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Kitchenware ||| Cookware ||| Water Bottle</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1209,26 +1209,26 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Personal Care Devices</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Beauty Appliances</t>
+          <t>个护健康</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Home Use Body Care Devices</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Home Use Body Care Devices</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.6012980937957764</v>
+          <t>肩颈按摩器</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0.384309709072113</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Personal Care &amp; Health ||| Neck and Shoulder Massager</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1288,26 +1288,26 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Personal Care Devices</t>
+          <t>工业品</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Personal Care Consumables</t>
+          <t>清洁用品</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Other Personal Care Consumables</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Other Personal Care Consumables</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.750008225440979</v>
+          <t>清洁设备</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0.4622924029827118</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Industrial Products ||| Cleaning Supplies ||| Cleaning Equipment</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1367,26 +1367,26 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Personal Care Devices</t>
+          <t>工业品</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Beauty Appliances</t>
+          <t>清洁用品</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Home Use Body Care Devices</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Home Use Body Care Devices</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.62464839220047</v>
+          <t>清洁设备</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0.4040166437625885</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Industrial Products ||| Cleaning Supplies ||| Cleaning Equipment</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1446,26 +1446,26 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Home Appliances</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Large Kitchen Appliances</t>
+          <t>商用电器</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Large Kitchen Appliances Accessories</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Large Kitchen Appliances Accessories</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.7734375</v>
+          <t>蒸柜</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0.545617938041687</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Commercial Appliances ||| Steam cabinet</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1525,26 +1525,26 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Stationery Office Supplies</t>
+          <t>电脑、办公</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>文具</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Tape, Adhesives Fasteners</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Tape, Adhesives Fasteners</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.5956079363822937</v>
+          <t>修正带/涂改液</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3941090106964111</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Computers &amp; Office ||| Stationery ||| Correction Tape / Correction Fluid</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1604,26 +1604,26 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Personal Care Devices</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Beauty Appliances</t>
+          <t>个护健康</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Home Use Body Care Devices</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Home Use Body Care Devices</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.6424324512481689</v>
+          <t>肩颈按摩器</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>0.4139442145824432</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Personal Care &amp; Health ||| Neck and Shoulder Massager</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1683,26 +1683,26 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Home Appliances</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Small Kitchen Appliances</t>
+          <t>厨房小电</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Blenders, Mixers Food Processors</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Blenders, Mixers Food Processors</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.7132229804992676</v>
+          <t>榨汁机/料理机</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0.6073823571205139</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Small Kitchen Appliances ||| Juicer/food processor</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1762,26 +1762,26 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Personal Care Devices</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Weight Control Relexation Appliances</t>
+          <t>个护健康</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Other Weight Control Relexation Appliances</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Other Weight Control Relexation Appliances</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.7051457166671753</v>
+          <t>肩颈按摩器</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0.3578138053417206</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Personal Care &amp; Health ||| Neck and Shoulder Massager</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1841,26 +1841,26 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>工业品</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Furniture Accessories</t>
+          <t>清洁用品</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Accessories</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Accessories</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.6361632347106934</v>
+          <t>清洁设备</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0.4154401123523712</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Industrial Products ||| Cleaning Supplies ||| Cleaning Equipment</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1920,26 +1920,26 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Personal Care</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Personal Care Consumables</t>
+          <t>个护健康</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Other Personal Care Consumables</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Other Personal Care Consumables</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.7409347295761108</v>
+          <t>肩颈按摩器</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4306097328662872</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Personal Care &amp; Health ||| Neck and Shoulder Massager</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1999,26 +1999,26 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Personal Care Devices</t>
+          <t>工业品</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Dental Care Appliances</t>
+          <t>清洁用品</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Other Dental Care Appliances</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Other Dental Care Appliances</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.7358078956604004</v>
+          <t>清洁设备</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4338081479072571</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Industrial Products ||| Cleaning Supplies ||| Cleaning Equipment</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2078,26 +2078,26 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Home Appliances</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Large Kitchen Appliances</t>
+          <t>商用电器</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Large Kitchen Appliances Accessories</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Large Kitchen Appliances Accessories</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.7868797779083252</v>
+          <t>蒸柜</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5728544592857361</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Commercial Appliances ||| Steam cabinet</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2157,26 +2157,26 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Home Appliances</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Small Kitchen Appliances</t>
+          <t>商用电器</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Indoor Grills Griddles</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Indoor Grills Griddles</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.5592375993728638</v>
+          <t>蒸柜</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3699938654899597</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Commercial Appliances ||| Steam cabinet</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2236,26 +2236,26 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Home Appliances</t>
+          <t>家用电器</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Large Kitchen Appliances</t>
+          <t>商用电器</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Large Kitchen Appliances Accessories</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Large Kitchen Appliances Accessories</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.7064105272293091</v>
+          <t>蒸柜</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0.4987922608852386</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Home Appliances ||| Commercial Appliances ||| Steam cabinet</t>
+        </is>
       </c>
     </row>
   </sheetData>
